--- a/history.xlsx
+++ b/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3237B77-4A44-4416-B20E-33B455CCFD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A77D7-0371-4BC6-95AD-F66D2040A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="3396" windowWidth="17268" windowHeight="8964" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="17">
-  <si>
-    <t>AVT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="27">
   <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,31 +70,59 @@
     <t>6wharf</t>
   </si>
   <si>
-    <t>AVTH</t>
+    <t>NewSorentoR</t>
+  </si>
+  <si>
+    <t>TheNewCanival</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G70</t>
-  </si>
-  <si>
-    <t>G70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GV70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>SoulBoosterEV14</t>
+  </si>
+  <si>
+    <t>AllNewSorento</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Winstorm</t>
   </si>
   <si>
     <t>i30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFSonata</t>
+  </si>
+  <si>
+    <t>NFSonata</t>
+  </si>
+  <si>
+    <t>YFSonata</t>
+  </si>
+  <si>
+    <t>GrandStarex</t>
+  </si>
+  <si>
+    <t>GranduerHG</t>
+  </si>
+  <si>
+    <t>GranduerIG</t>
+  </si>
+  <si>
+    <t>SantaFeTM</t>
+  </si>
+  <si>
+    <t>AvanteMD</t>
+  </si>
+  <si>
+    <t>TheNewKona</t>
+  </si>
+  <si>
+    <t>7wharf</t>
+  </si>
+  <si>
+    <t>8wharf</t>
   </si>
 </sst>
 </file>
@@ -473,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -484,19 +508,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -504,13 +528,13 @@
         <v>44427</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -521,13 +545,13 @@
         <v>44429</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -538,13 +562,13 @@
         <v>44430</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -555,13 +579,13 @@
         <v>44431</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -572,13 +596,13 @@
         <v>44432</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -589,13 +613,13 @@
         <v>44433</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -606,13 +630,13 @@
         <v>44437</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -623,13 +647,13 @@
         <v>44438</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -640,13 +664,13 @@
         <v>44427</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -657,10 +681,10 @@
         <v>44429</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -674,13 +698,13 @@
         <v>44430</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>13</v>
@@ -691,13 +715,13 @@
         <v>44431</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -708,10 +732,10 @@
         <v>44432</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -725,13 +749,13 @@
         <v>44433</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -742,10 +766,10 @@
         <v>44437</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -759,13 +783,13 @@
         <v>44438</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>18</v>
@@ -776,13 +800,13 @@
         <v>44427</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -793,10 +817,10 @@
         <v>44429</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -810,13 +834,13 @@
         <v>44430</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -827,13 +851,13 @@
         <v>44431</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -844,13 +868,13 @@
         <v>44432</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -861,13 +885,13 @@
         <v>44433</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -878,13 +902,13 @@
         <v>44437</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>17</v>
@@ -895,13 +919,13 @@
         <v>44438</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>18</v>
@@ -912,13 +936,13 @@
         <v>44427</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -929,10 +953,10 @@
         <v>44429</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -946,13 +970,13 @@
         <v>44430</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>13</v>
@@ -963,13 +987,13 @@
         <v>44431</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -980,10 +1004,10 @@
         <v>44432</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -997,13 +1021,13 @@
         <v>44433</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>16</v>
@@ -1014,10 +1038,10 @@
         <v>44437</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1031,13 +1055,13 @@
         <v>44438</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>18</v>
@@ -1048,13 +1072,13 @@
         <v>44427</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>11</v>
@@ -1065,10 +1089,10 @@
         <v>44429</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1082,13 +1106,13 @@
         <v>44430</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>13</v>
@@ -1099,13 +1123,13 @@
         <v>44431</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>14</v>
@@ -1116,10 +1140,10 @@
         <v>44432</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1133,13 +1157,13 @@
         <v>44433</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>16</v>
@@ -1150,13 +1174,13 @@
         <v>44437</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>17</v>
@@ -1167,13 +1191,13 @@
         <v>44438</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>18</v>
@@ -1184,13 +1208,13 @@
         <v>44427</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -1201,10 +1225,10 @@
         <v>44429</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1221,10 +1245,10 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>13</v>
@@ -1238,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -1252,10 +1276,10 @@
         <v>44432</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1269,13 +1293,13 @@
         <v>44433</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>16</v>
@@ -1286,13 +1310,13 @@
         <v>44437</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <v>17</v>
@@ -1303,13 +1327,13 @@
         <v>44438</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>18</v>
@@ -1320,13 +1344,13 @@
         <v>44427</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -1337,13 +1361,13 @@
         <v>44429</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -1354,13 +1378,13 @@
         <v>44430</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>13</v>
@@ -1371,13 +1395,13 @@
         <v>44431</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>14</v>
@@ -1388,13 +1412,13 @@
         <v>44432</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>15</v>
@@ -1405,13 +1429,13 @@
         <v>44433</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>16</v>
@@ -1422,10 +1446,10 @@
         <v>44437</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1439,13 +1463,13 @@
         <v>44438</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>18</v>
@@ -1456,13 +1480,13 @@
         <v>44431</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>14</v>
@@ -1473,10 +1497,10 @@
         <v>44432</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1490,13 +1514,13 @@
         <v>44433</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>16</v>
@@ -1507,10 +1531,10 @@
         <v>44437</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1524,13 +1548,13 @@
         <v>44438</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>18</v>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A77D7-0371-4BC6-95AD-F66D2040A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB223B28-3FA5-40F0-B0F2-AFCA949D7552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
   <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>TheNewKona</t>
-  </si>
-  <si>
-    <t>7wharf</t>
-  </si>
-  <si>
-    <t>8wharf</t>
   </si>
 </sst>
 </file>
@@ -497,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -721,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -738,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -752,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -769,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -803,10 +797,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -820,10 +814,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>12</v>
@@ -840,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -857,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -874,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -891,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -905,10 +899,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>17</v>
@@ -922,10 +916,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>18</v>
@@ -942,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -973,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -993,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -1007,10 +1001,10 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -1024,10 +1018,10 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>16</v>
@@ -1041,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1058,10 +1052,10 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>18</v>
@@ -1078,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>11</v>
@@ -1092,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1112,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>13</v>
@@ -1126,10 +1120,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>14</v>
@@ -1143,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1177,10 +1171,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>17</v>
@@ -1197,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>18</v>
@@ -1211,10 +1205,10 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -1228,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1245,10 +1239,10 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>13</v>
@@ -1262,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -1296,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>16</v>
@@ -1316,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>17</v>
@@ -1330,10 +1324,10 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>18</v>
@@ -1350,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -1364,10 +1358,10 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -1381,10 +1375,10 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>13</v>
@@ -1398,10 +1392,10 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>14</v>
@@ -1415,10 +1409,10 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>15</v>
@@ -1432,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1449,10 +1443,10 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>17</v>
@@ -1466,10 +1460,10 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>18</v>
@@ -1483,10 +1477,10 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>14</v>
@@ -1503,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>15</v>
@@ -1517,10 +1511,10 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>16</v>
@@ -1534,10 +1528,10 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <v>17</v>
@@ -1551,10 +1545,10 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>18</v>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB223B28-3FA5-40F0-B0F2-AFCA949D7552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F28FB5-866A-4E3E-B366-4F8D036041E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$123</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="26">
   <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +120,10 @@
   </si>
   <si>
     <t>TheNewKona</t>
+  </si>
+  <si>
+    <t>YARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,10 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
-  <dimension ref="A1:E62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -517,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44427</v>
       </c>
@@ -551,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>44430</v>
       </c>
@@ -568,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>44431</v>
       </c>
@@ -602,7 +610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>44433</v>
       </c>
@@ -636,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44438</v>
       </c>
@@ -653,7 +661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>44427</v>
       </c>
@@ -670,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>44429</v>
       </c>
@@ -715,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -738,7 +746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>44433</v>
       </c>
@@ -766,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>17</v>
@@ -789,7 +797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>44427</v>
       </c>
@@ -823,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44430</v>
       </c>
@@ -851,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -868,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -891,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44437</v>
       </c>
@@ -925,7 +933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>44427</v>
       </c>
@@ -942,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44429</v>
       </c>
@@ -987,7 +995,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -1010,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44433</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44437</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44438</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -1112,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44431</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -1163,7 +1171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>44437</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>44427</v>
       </c>
@@ -1225,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>44430</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44432</v>
       </c>
@@ -1299,7 +1307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44437</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>44438</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -1384,7 +1392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>44431</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>44432</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>16</v>
@@ -1452,7 +1460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>44438</v>
       </c>
@@ -1486,7 +1494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>44432</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>16</v>
@@ -1537,7 +1545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>44438</v>
       </c>
@@ -1554,7 +1562,1051 @@
         <v>18</v>
       </c>
     </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E123" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="abroad"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F28FB5-866A-4E3E-B366-4F8D036041E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87917B60-A019-4A6A-BEFA-67BB435B63A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="27">
   <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>YARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6wharf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,11 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -525,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44427</v>
       </c>
@@ -559,7 +562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>44430</v>
       </c>
@@ -576,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>44431</v>
       </c>
@@ -610,7 +613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>44433</v>
       </c>
@@ -644,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44438</v>
       </c>
@@ -661,7 +664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>44427</v>
       </c>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>44429</v>
       </c>
@@ -746,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>44433</v>
       </c>
@@ -797,7 +800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>44427</v>
       </c>
@@ -831,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44430</v>
       </c>
@@ -899,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44437</v>
       </c>
@@ -933,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>44427</v>
       </c>
@@ -950,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44429</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44433</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44437</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44438</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44431</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>44437</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>44427</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>44430</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44432</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44437</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>44438</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>44431</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>44432</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -1451,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1460,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>44438</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>44432</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>44438</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>44364</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>44366</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>44369</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>44371</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>44372</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>44373</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>44377</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>44378</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>44380</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>44382</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>44383</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>44384</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>44388</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>44391</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>44393</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>44395</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>44397</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>44399</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>44402</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>44404</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>44406</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>44410</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>44411</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>44415</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>44416</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E116">
         <v>16</v>
@@ -2508,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E118">
         <v>18</v>
@@ -2531,7 +2534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>44421</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>44422</v>
       </c>
@@ -2600,13 +2603,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E123" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="abroad"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E123" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87917B60-A019-4A6A-BEFA-67BB435B63A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D38897-332A-41FC-AB31-5BD7905523C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
   </bookViews>
@@ -134,9 +134,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,14 +173,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -530,7 +524,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -546,8 +540,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>44429</v>
+      <c r="A3" s="1">
+        <v>44410</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -563,8 +557,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>44430</v>
+      <c r="A4" s="1">
+        <v>44411</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -580,8 +574,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>44431</v>
+      <c r="A5" s="1">
+        <v>44412</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -597,8 +591,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>44432</v>
+      <c r="A6" s="1">
+        <v>44413</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -614,8 +608,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>44433</v>
+      <c r="A7" s="1">
+        <v>44414</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -631,8 +625,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>44437</v>
+      <c r="A8" s="1">
+        <v>44415</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -648,8 +642,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>44438</v>
+      <c r="A9" s="1">
+        <v>44416</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -666,7 +660,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -682,8 +676,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>44429</v>
+      <c r="A11" s="1">
+        <v>44410</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -699,8 +693,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>44430</v>
+      <c r="A12" s="1">
+        <v>44411</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -716,8 +710,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>44431</v>
+      <c r="A13" s="1">
+        <v>44412</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -733,8 +727,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>44432</v>
+      <c r="A14" s="1">
+        <v>44413</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -750,8 +744,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>44433</v>
+      <c r="A15" s="1">
+        <v>44414</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -767,8 +761,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>44437</v>
+      <c r="A16" s="1">
+        <v>44415</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -784,8 +778,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>44438</v>
+      <c r="A17" s="1">
+        <v>44416</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -802,7 +796,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -818,8 +812,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>44429</v>
+      <c r="A19" s="1">
+        <v>44410</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -835,8 +829,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>44430</v>
+      <c r="A20" s="1">
+        <v>44411</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -852,8 +846,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>44431</v>
+      <c r="A21" s="1">
+        <v>44412</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -869,8 +863,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>44432</v>
+      <c r="A22" s="1">
+        <v>44413</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -886,8 +880,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>44433</v>
+      <c r="A23" s="1">
+        <v>44414</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -903,8 +897,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>44437</v>
+      <c r="A24" s="1">
+        <v>44415</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -920,8 +914,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>44438</v>
+      <c r="A25" s="1">
+        <v>44416</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -938,7 +932,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -954,8 +948,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>44429</v>
+      <c r="A27" s="1">
+        <v>44410</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -971,8 +965,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>44430</v>
+      <c r="A28" s="1">
+        <v>44411</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -988,8 +982,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>44431</v>
+      <c r="A29" s="1">
+        <v>44412</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1005,8 +999,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>44432</v>
+      <c r="A30" s="1">
+        <v>44413</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1022,8 +1016,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>44433</v>
+      <c r="A31" s="1">
+        <v>44414</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -1039,8 +1033,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <v>44437</v>
+      <c r="A32" s="1">
+        <v>44415</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -1056,8 +1050,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
-        <v>44438</v>
+      <c r="A33" s="1">
+        <v>44416</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -1074,7 +1068,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1090,8 +1084,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
-        <v>44429</v>
+      <c r="A35" s="1">
+        <v>44410</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1107,8 +1101,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>44430</v>
+      <c r="A36" s="1">
+        <v>44411</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1124,8 +1118,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>44431</v>
+      <c r="A37" s="1">
+        <v>44412</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1141,8 +1135,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>44432</v>
+      <c r="A38" s="1">
+        <v>44413</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -1158,8 +1152,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>44433</v>
+      <c r="A39" s="1">
+        <v>44414</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -1175,8 +1169,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>44437</v>
+      <c r="A40" s="1">
+        <v>44415</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1192,8 +1186,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
-        <v>44438</v>
+      <c r="A41" s="1">
+        <v>44416</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1210,7 +1204,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -1226,8 +1220,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
-        <v>44429</v>
+      <c r="A43" s="1">
+        <v>44410</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -1243,8 +1237,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
-        <v>44430</v>
+      <c r="A44" s="1">
+        <v>44411</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -1260,8 +1254,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
-        <v>44431</v>
+      <c r="A45" s="1">
+        <v>44412</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -1277,8 +1271,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
-        <v>44432</v>
+      <c r="A46" s="1">
+        <v>44413</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -1294,8 +1288,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
-        <v>44433</v>
+      <c r="A47" s="1">
+        <v>44414</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -1311,8 +1305,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
-        <v>44437</v>
+      <c r="A48" s="1">
+        <v>44415</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -1328,8 +1322,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
-        <v>44438</v>
+      <c r="A49" s="1">
+        <v>44416</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1346,7 +1340,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>44427</v>
+        <v>44409</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -1362,8 +1356,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
-        <v>44429</v>
+      <c r="A51" s="1">
+        <v>44410</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -1379,8 +1373,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
-        <v>44430</v>
+      <c r="A52" s="1">
+        <v>44411</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -1396,8 +1390,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
-        <v>44431</v>
+      <c r="A53" s="1">
+        <v>44412</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -1413,8 +1407,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
-        <v>44432</v>
+      <c r="A54" s="1">
+        <v>44413</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -1430,8 +1424,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
-        <v>44433</v>
+      <c r="A55" s="1">
+        <v>44414</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -1447,8 +1441,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
-        <v>44437</v>
+      <c r="A56" s="1">
+        <v>44415</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -1464,8 +1458,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
-        <v>44438</v>
+      <c r="A57" s="1">
+        <v>44416</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -1481,8 +1475,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
-        <v>44431</v>
+      <c r="A58" s="1">
+        <v>44409</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -1498,8 +1492,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
-        <v>44432</v>
+      <c r="A59" s="1">
+        <v>44410</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1515,8 +1509,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
-        <v>44433</v>
+      <c r="A60" s="1">
+        <v>44411</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -1532,8 +1526,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
-        <v>44437</v>
+      <c r="A61" s="1">
+        <v>44412</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -1549,8 +1543,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
-        <v>44438</v>
+      <c r="A62" s="1">
+        <v>44413</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
@@ -1567,7 +1561,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>44364</v>
+        <v>44414</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <v>44365</v>
+        <v>44415</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>44366</v>
+        <v>44416</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D38897-332A-41FC-AB31-5BD7905523C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D777DB0-7FEF-48B3-BBBD-813D10CC7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A273E6-80F9-4C75-A605-686DD5FAD0E8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="27">
   <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -745,180 +745,180 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>44415</v>
+        <v>44409</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>44416</v>
+        <v>44410</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>44410</v>
+        <v>44415</v>
       </c>
       <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
         <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>44411</v>
+        <v>44416</v>
       </c>
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
         <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>44412</v>
+        <v>44409</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>44413</v>
+        <v>44410</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>44414</v>
+        <v>44411</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>44415</v>
+        <v>44412</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>44416</v>
+        <v>44413</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -927,32 +927,32 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>44409</v>
+        <v>44415</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>44410</v>
+        <v>44416</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -961,100 +961,100 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>44412</v>
+        <v>44415</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>44413</v>
+        <v>44409</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>44414</v>
+        <v>44411</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>44415</v>
+        <v>44412</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>44416</v>
+        <v>44413</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1063,24 +1063,24 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>44409</v>
+        <v>44415</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1088,7 +1088,7 @@
         <v>44410</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1102,78 +1102,78 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>44412</v>
+        <v>44415</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>44413</v>
+        <v>44416</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>44414</v>
+        <v>44409</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>44415</v>
+        <v>44413</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1190,92 +1190,92 @@
         <v>44416</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>44409</v>
+        <v>44367</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>44410</v>
+        <v>44369</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>44411</v>
+        <v>44371</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>44413</v>
+        <v>44378</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1284,15 +1284,15 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1301,66 +1301,66 @@
         <v>6</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>44415</v>
+        <v>44380</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>44416</v>
+        <v>44383</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>44409</v>
+        <v>44384</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>44410</v>
+        <v>44385</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1369,151 +1369,151 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>44412</v>
+        <v>44393</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>44413</v>
+        <v>44394</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>44414</v>
+        <v>44395</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>44415</v>
+        <v>44397</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>44416</v>
+        <v>44400</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>44409</v>
+        <v>44404</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>44410</v>
+        <v>44406</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>44411</v>
+        <v>44408</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1522,15 +1522,15 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>44412</v>
+        <v>44409</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1539,15 +1539,15 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>44413</v>
+        <v>44411</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1561,19 +1561,19 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -1581,16 +1581,16 @@
         <v>44415</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -1598,47 +1598,47 @@
         <v>44416</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>44367</v>
+        <v>44417</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>44368</v>
+        <v>44421</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>15</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
-        <v>44369</v>
+        <v>44422</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>44370</v>
+        <v>44423</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1678,926 +1678,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" s="1">
-        <v>44371</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="1">
-        <v>44372</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" s="1">
-        <v>44373</v>
-      </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="1">
-        <v>44374</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="1">
-        <v>44375</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="1">
-        <v>44376</v>
-      </c>
-      <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="1">
-        <v>44378</v>
-      </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="1">
-        <v>44379</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="1">
-        <v>44380</v>
-      </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" s="1">
-        <v>44381</v>
-      </c>
-      <c r="B80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="1">
-        <v>44382</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="1">
-        <v>44383</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="1">
-        <v>44384</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="1">
-        <v>44385</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="1">
-        <v>44386</v>
-      </c>
-      <c r="B85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="1">
-        <v>44387</v>
-      </c>
-      <c r="B86" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="1">
-        <v>44388</v>
-      </c>
-      <c r="B87" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="1">
-        <v>44389</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="1">
-        <v>44390</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="1">
-        <v>44391</v>
-      </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="1">
-        <v>44392</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="1">
-        <v>44393</v>
-      </c>
-      <c r="B92" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="1">
-        <v>44394</v>
-      </c>
-      <c r="B93" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="1">
-        <v>44395</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="1">
-        <v>44396</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="1">
-        <v>44397</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="1">
-        <v>44398</v>
-      </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="1">
-        <v>44399</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="1">
-        <v>44400</v>
-      </c>
-      <c r="B99" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="1">
-        <v>44401</v>
-      </c>
-      <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="1">
-        <v>44402</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" s="1">
-        <v>44403</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="1">
-        <v>44404</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="1">
-        <v>44405</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="1">
-        <v>44406</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="1">
-        <v>44407</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="1">
-        <v>44408</v>
-      </c>
-      <c r="B107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" s="1">
-        <v>44409</v>
-      </c>
-      <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="1">
-        <v>44410</v>
-      </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="1">
-        <v>44411</v>
-      </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="1">
-        <v>44412</v>
-      </c>
-      <c r="B111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="1">
-        <v>44413</v>
-      </c>
-      <c r="B112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="1">
-        <v>44414</v>
-      </c>
-      <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="1">
-        <v>44415</v>
-      </c>
-      <c r="B114" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="1">
-        <v>44416</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="1">
-        <v>44417</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="1">
-        <v>44418</v>
-      </c>
-      <c r="B117" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="1">
-        <v>44419</v>
-      </c>
-      <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="1">
-        <v>44420</v>
-      </c>
-      <c r="B119" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="1">
-        <v>44421</v>
-      </c>
-      <c r="B120" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121" s="1">
-        <v>44422</v>
-      </c>
-      <c r="B121" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122" s="1">
-        <v>44423</v>
-      </c>
-      <c r="B122" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123" s="1">
-        <v>44424</v>
-      </c>
-      <c r="B123" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E123" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}"/>
+  <autoFilter ref="A1:E69" xr:uid="{9BCC8997-91C0-494A-B12D-A53A0F24605C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
